--- a/data/manual/primario.xlsx
+++ b/data/manual/primario.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>al</t>
   </si>
@@ -86,9 +86,6 @@
     <t>report not available at SISTN/SICONFI</t>
   </si>
   <si>
-    <t>non-standard report and value in thousands</t>
-  </si>
-  <si>
     <t>non-standard report</t>
   </si>
   <si>
@@ -189,6 +186,90 @@
   </si>
   <si>
     <t>mt2014</t>
+  </si>
+  <si>
+    <t>values in thousands</t>
+  </si>
+  <si>
+    <t>ap2012</t>
+  </si>
+  <si>
+    <t>parsing error - wrong sign</t>
+  </si>
+  <si>
+    <t>am2009</t>
+  </si>
+  <si>
+    <t>ac2012</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>ac2013</t>
+  </si>
+  <si>
+    <t>rr2009</t>
+  </si>
+  <si>
+    <t>se2010</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>pe2012</t>
+  </si>
+  <si>
+    <t>df2009</t>
+  </si>
+  <si>
+    <t>se2009</t>
+  </si>
+  <si>
+    <t>pb2010</t>
+  </si>
+  <si>
+    <t>am2010</t>
+  </si>
+  <si>
+    <t>sc2014</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>se2011</t>
+  </si>
+  <si>
+    <t>pe2009</t>
+  </si>
+  <si>
+    <t>pe2011</t>
+  </si>
+  <si>
+    <t>pa2010</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>se2012</t>
+  </si>
+  <si>
+    <t>rs2014</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>parsing error - wrong sign - semi-automatic detection</t>
+  </si>
+  <si>
+    <t>go2013</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
 </sst>
 </file>
@@ -198,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +290,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,9 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -516,21 +605,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -538,7 +627,7 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
@@ -547,449 +636,772 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>2014</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-278940261.91000003</v>
+        <v>2012</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-447859717.38999999</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>2014</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-837084547.85000002</v>
+        <v>2013</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-412796110.28999901</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2014</v>
       </c>
-      <c r="D4" s="1">
-        <v>-410822127.05000001</v>
+      <c r="D4" s="2">
+        <v>-278940261.91000003</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C5">
-        <v>2013</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300874947.81</v>
+        <v>2009</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-931786346.84000003</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>2014</v>
-      </c>
-      <c r="D6" s="1">
-        <v>455335069.85000002</v>
+        <v>2010</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-322386639.140001</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>2013</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-1189482200.0599999</v>
+        <v>2014</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-837084547.85000002</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2014</v>
-      </c>
-      <c r="D8" s="1">
-        <v>514150533.05000001</v>
+        <v>2012</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-257026048.77000001</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2013</v>
-      </c>
-      <c r="D9" s="1">
-        <v>316506974.11000001</v>
+        <v>2014</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-410822127.05000001</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2014</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-494585752.77999997</v>
+        <v>2013</v>
+      </c>
+      <c r="D10" s="2">
+        <v>300874947.81</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2014</v>
       </c>
-      <c r="D11" s="1">
-        <v>-1253783.1299999999</v>
+      <c r="D11" s="2">
+        <v>455335069.85000002</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2013</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-658278189.60000002</v>
+        <v>2009</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-415012273.90999699</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2014</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-306741345.73000002</v>
+        <v>2013</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-1189482200.0599999</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>2013</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-77749297.180000007</v>
+        <v>2014</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-514150533.049999</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>2014</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-399774000</v>
+        <v>2013</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-316506974.10999799</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>2014</v>
       </c>
-      <c r="D16" s="1">
-        <v>-2060529274.22</v>
+      <c r="D16" s="2">
+        <v>-494585752.77999997</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>2009</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-173980592.63999999</v>
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="2">
+        <v>215945731.81999999</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>2014</v>
       </c>
-      <c r="D18" s="1">
-        <v>-147537543.31999999</v>
+      <c r="D18" s="2">
+        <v>-1253783.1299999999</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>2012</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-908716935</v>
+        <v>2013</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-658278189.60000002</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>2013</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-4704246421</v>
+        <v>2014</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-306741345.73000002</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C21">
-        <v>2014</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-7339441229</v>
+        <v>2010</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-195055429.39999899</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>2014</v>
-      </c>
-      <c r="D22" s="1">
-        <v>219671374.91999999</v>
+        <v>2010</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-205002757.28</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>2009</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-830730244.23000002</v>
+        <v>2013</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-77749297.180000007</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>2013</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-382064880.23000002</v>
+        <v>2014</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-399774000</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>2014</v>
-      </c>
-      <c r="D25" s="1">
-        <v>104634036.97</v>
+        <v>2009</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-331067436.62</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>2013</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-1034616534.39</v>
+        <v>2011</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-357582305.71000201</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>2012</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1058307026.63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-2060529274.22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2009</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-173980592.63999999</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-147537543.31999999</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>2012</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-908716935</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>2013</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-4704246421</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>2014</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-7339441229</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>2014</v>
+      </c>
+      <c r="D34" s="2">
+        <v>219671374.91999999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>2009</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-830730244.23000002</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>2013</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-382064880.23000002</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>2014</v>
+      </c>
+      <c r="D37" s="2">
+        <v>104634036.97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>2009</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-126212077.36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>2013</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-1034616534.39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>2014</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-542159461.04999495</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <v>2014</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-654081556.180004</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>2009</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-167083330.06999999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>2010</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-320011548.93999898</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>2011</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-124992576.469999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>2012</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-98139167.800000101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C46">
+        <v>2014</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-522092597.60000002</v>
+      </c>
+      <c r="E46" t="s">
         <v>51</v>
       </c>
-      <c r="C27">
-        <v>2014</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-522092597.60000002</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E26">
-    <sortCondition ref="A9"/>
+  <sortState ref="A2:E48">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
